--- a/testData/SFS_AllMobile_Tbl_Live.xlsx
+++ b/testData/SFS_AllMobile_Tbl_Live.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -316,6 +316,13 @@
   </si>
   <si>
     <t>formshow_30112023</t>
+  </si>
+  <si>
+    <t>date_range
+Appointment Date : 23/01/2024, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -905,7 +912,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>
@@ -947,7 +954,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>
